--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>21.27494390097301</v>
+        <v>94.29975134485333</v>
       </c>
       <c r="C2">
-        <v>0.04071113584278082</v>
+        <v>0.1804493588707041</v>
       </c>
       <c r="D2">
-        <v>22.09066394922979</v>
+        <v>97.91537534253204</v>
       </c>
       <c r="E2">
-        <v>6.131420412281376</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F2">
-        <v>36.92237555094717</v>
+        <v>163.6559348744684</v>
       </c>
       <c r="G2">
-        <v>32.12501487564429</v>
+        <v>142.3919578271799</v>
       </c>
       <c r="H2">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I2">
-        <v>119.6288250182026</v>
+        <v>530.2466838644656</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>21.3201136332468</v>
+        <v>94.49996313114811</v>
       </c>
       <c r="C3">
-        <v>0.04681780621919793</v>
+        <v>0.2075167627013098</v>
       </c>
       <c r="D3">
-        <v>22.09066394922979</v>
+        <v>97.91537534253204</v>
       </c>
       <c r="E3">
-        <v>6.39800390846752</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F3">
-        <v>38.00832777303387</v>
+        <v>168.4693447237175</v>
       </c>
       <c r="G3">
-        <v>27.14009877425119</v>
+        <v>120.2966540264107</v>
       </c>
       <c r="H3">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I3">
-        <v>116.0477210377326</v>
+        <v>514.3736824375176</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>21.7718109559851</v>
+        <v>96.50208099409615</v>
       </c>
       <c r="C4">
-        <v>0.02849779508994658</v>
+        <v>0.1263145512094929</v>
       </c>
       <c r="D4">
-        <v>14.72710929948653</v>
+        <v>65.27691689502136</v>
       </c>
       <c r="E4">
-        <v>5.065086427536787</v>
+        <v>22.45065335448738</v>
       </c>
       <c r="F4">
-        <v>27.51078962619593</v>
+        <v>121.9397161809765</v>
       </c>
       <c r="G4">
-        <v>18.27802570510794</v>
+        <v>81.01611393615414</v>
       </c>
       <c r="H4">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I4">
-        <v>88.07711660492508</v>
+        <v>390.395868194803</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>25.24988034106985</v>
+        <v>111.9183885387962</v>
       </c>
       <c r="C5">
-        <v>0.06310226055631028</v>
+        <v>0.2796965062495914</v>
       </c>
       <c r="D5">
-        <v>29.45421859897306</v>
+        <v>130.5538337900427</v>
       </c>
       <c r="E5">
-        <v>4.798502931350641</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F5">
-        <v>39.81824814317832</v>
+        <v>176.491694472466</v>
       </c>
       <c r="G5">
-        <v>20.49354397239375</v>
+        <v>90.83624895871826</v>
       </c>
       <c r="H5">
-        <v>1.73949198880709</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I5">
-        <v>121.616988236329</v>
+        <v>539.0590829934583</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>26.51463284473707</v>
+        <v>117.5243185550507</v>
       </c>
       <c r="C6">
-        <v>0.03867557905064178</v>
+        <v>0.171426890927169</v>
       </c>
       <c r="D6">
-        <v>27.81787312125234</v>
+        <v>123.3008430239292</v>
       </c>
       <c r="E6">
-        <v>5.065086427536787</v>
+        <v>22.45065335448738</v>
       </c>
       <c r="F6">
-        <v>41.62816851332278</v>
+        <v>184.5140442212145</v>
       </c>
       <c r="G6">
-        <v>18.83190527192939</v>
+        <v>83.47114769179517</v>
       </c>
       <c r="H6">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I6">
-        <v>120.9400369511133</v>
+        <v>536.0585421616911</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>26.15327498654641</v>
+        <v>115.9226242646923</v>
       </c>
       <c r="C7">
-        <v>0.0793867148934226</v>
+        <v>0.3518762497978731</v>
       </c>
       <c r="D7">
-        <v>21.27249121036942</v>
+        <v>94.28887995947534</v>
       </c>
       <c r="E7">
-        <v>6.39800390846752</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F7">
-        <v>39.81824814317832</v>
+        <v>176.491694472466</v>
       </c>
       <c r="G7">
-        <v>18.27802570510794</v>
+        <v>81.01611393615414</v>
       </c>
       <c r="H7">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I7">
-        <v>113.0431258618473</v>
+        <v>501.0560173335936</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>30.57990874938157</v>
+        <v>135.5433793215831</v>
       </c>
       <c r="C8">
-        <v>0.08956449885411781</v>
+        <v>0.3969885895155492</v>
       </c>
       <c r="D8">
-        <v>29.45421859897306</v>
+        <v>130.5538337900427</v>
       </c>
       <c r="E8">
-        <v>6.664587404653667</v>
+        <v>29.5403333611676</v>
       </c>
       <c r="F8">
-        <v>29.68269407036929</v>
+        <v>131.5665358794747</v>
       </c>
       <c r="G8">
-        <v>13.84698917053632</v>
+        <v>61.37584389102585</v>
       </c>
       <c r="H8">
-        <v>2.435288784329926</v>
+        <v>10.79425299000291</v>
       </c>
       <c r="I8">
-        <v>112.753251277098</v>
+        <v>499.7711678228124</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>35.41307010268114</v>
+        <v>156.9660404551273</v>
       </c>
       <c r="C9">
-        <v>0.02442668150566848</v>
+        <v>0.1082696153224225</v>
       </c>
       <c r="D9">
-        <v>17.99980025492799</v>
+        <v>79.7828984272483</v>
       </c>
       <c r="E9">
-        <v>5.864836916095228</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F9">
-        <v>22.08102851576252</v>
+        <v>97.87266693473117</v>
       </c>
       <c r="G9">
-        <v>11.63147090325051</v>
+        <v>51.55570886846171</v>
       </c>
       <c r="I9">
-        <v>93.01463337422307</v>
+        <v>412.2810776587184</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>33.83212947309718</v>
+        <v>149.9586279348092</v>
       </c>
       <c r="C10">
-        <v>0.01424889754497329</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D10">
-        <v>17.18162751606761</v>
+        <v>76.15640304419158</v>
       </c>
       <c r="E10">
-        <v>9.597005862701282</v>
+        <v>42.53808004008135</v>
       </c>
       <c r="F10">
-        <v>17.73721962741578</v>
+        <v>78.61902753773489</v>
       </c>
       <c r="G10">
-        <v>6.092675235035983</v>
+        <v>27.00537131205137</v>
       </c>
       <c r="H10">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I10">
-        <v>84.80280500962422</v>
+        <v>375.882703285902</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>24.43682516014095</v>
+        <v>108.3145763854897</v>
       </c>
       <c r="C11">
-        <v>0.01221334075283424</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D11">
-        <v>13.90893656062617</v>
+        <v>61.65042151196462</v>
       </c>
       <c r="E11">
-        <v>7.997504885584402</v>
+        <v>35.44840003340113</v>
       </c>
       <c r="F11">
-        <v>7.963649628635663</v>
+        <v>35.29833889449321</v>
       </c>
       <c r="G11">
-        <v>9.415952635964695</v>
+        <v>41.73557384589758</v>
       </c>
       <c r="H11">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I11">
-        <v>64.08298060946613</v>
+        <v>284.0434816203364</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>21.95248988508042</v>
+        <v>97.30292813927537</v>
       </c>
       <c r="C12">
-        <v>0.03664002225850273</v>
+        <v>0.1624044229836337</v>
       </c>
       <c r="D12">
-        <v>12.27259108290544</v>
+        <v>54.39743074585115</v>
       </c>
       <c r="E12">
-        <v>6.931170900839816</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F12">
-        <v>7.601665554606769</v>
+        <v>33.69386894474353</v>
       </c>
       <c r="G12">
-        <v>4.984916101393076</v>
+        <v>22.09530380076931</v>
       </c>
       <c r="H12">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I12">
-        <v>54.12737194484545</v>
+        <v>239.9159188906662</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>15.99008522493512</v>
+        <v>70.87497234836107</v>
       </c>
       <c r="C13">
-        <v>0.008142227168556164</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D13">
-        <v>10.63624560518471</v>
+        <v>47.14443997973767</v>
       </c>
       <c r="E13">
-        <v>6.931170900839816</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F13">
-        <v>5.7917451844623</v>
+        <v>25.67151919599507</v>
       </c>
       <c r="G13">
-        <v>4.431036534571623</v>
+        <v>19.64027004512828</v>
       </c>
       <c r="H13">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I13">
-        <v>44.13632407492355</v>
+        <v>195.6312742780395</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>8.220891273836701</v>
+        <v>36.43854510565458</v>
       </c>
       <c r="C14">
-        <v>0.004071113584278082</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D14">
-        <v>4.090863694301813</v>
+        <v>18.13247691528371</v>
       </c>
       <c r="E14">
-        <v>4.531919435164494</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F14">
-        <v>4.343808888346726</v>
+        <v>19.25363939699629</v>
       </c>
       <c r="G14">
-        <v>1.661638700464359</v>
+        <v>7.365101266923102</v>
       </c>
       <c r="I14">
-        <v>22.85319310569837</v>
+        <v>101.2952343063387</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>6.68512037652655</v>
+        <v>29.63134437163118</v>
       </c>
       <c r="C15">
-        <v>0.01424889754497329</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D15">
-        <v>6.545381910882903</v>
+        <v>29.01196306445394</v>
       </c>
       <c r="E15">
-        <v>1.59950097711688</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F15">
-        <v>10.85952222086681</v>
+        <v>48.13409849249071</v>
       </c>
       <c r="G15">
-        <v>2.769397834107264</v>
+        <v>12.27516877820517</v>
       </c>
       <c r="I15">
-        <v>28.47317221704538</v>
+        <v>126.205411989066</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>5.465537605133192</v>
+        <v>24.22562614167144</v>
       </c>
       <c r="C16">
-        <v>0.01221334075283424</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="F16">
-        <v>4.705792962375619</v>
+        <v>20.85810934674598</v>
       </c>
       <c r="G16">
-        <v>2.769397834107264</v>
+        <v>12.27516877820517</v>
       </c>
       <c r="I16">
-        <v>12.95294174236891</v>
+        <v>57.41303907428382</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>2.98120233007265</v>
+        <v>13.21397789545715</v>
       </c>
       <c r="C17">
-        <v>0.002035556792139041</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D17">
-        <v>2.454518216581088</v>
+        <v>10.87948614917023</v>
       </c>
       <c r="F17">
-        <v>3.257856666260046</v>
+        <v>14.44022954774723</v>
       </c>
       <c r="G17">
-        <v>1.107759133642906</v>
+        <v>4.91006751128207</v>
       </c>
       <c r="I17">
-        <v>9.803371903348827</v>
+        <v>43.45278357160021</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.348826078239057</v>
+        <v>10.41101288732987</v>
       </c>
       <c r="C18">
-        <v>0.002035556792139041</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D18">
-        <v>0.8181727388603629</v>
+        <v>3.626495383056743</v>
       </c>
       <c r="F18">
-        <v>1.809920370144469</v>
+        <v>8.022349748748455</v>
       </c>
       <c r="G18">
-        <v>2.215518267285812</v>
+        <v>9.82013502256414</v>
       </c>
       <c r="I18">
-        <v>7.19447301132184</v>
+        <v>31.88901550964274</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.258486613691401</v>
+        <v>10.01058931474026</v>
       </c>
       <c r="C19">
-        <v>0.0101777839606952</v>
+        <v>0.04511233971767603</v>
       </c>
       <c r="D19">
-        <v>1.636345477720726</v>
+        <v>7.252990766113486</v>
       </c>
       <c r="E19">
-        <v>1.066333984744587</v>
+        <v>4.726453337786817</v>
       </c>
       <c r="F19">
-        <v>4.343808888346726</v>
+        <v>19.25363939699629</v>
       </c>
       <c r="G19">
-        <v>2.215518267285812</v>
+        <v>9.82013502256414</v>
       </c>
       <c r="I19">
-        <v>11.53067101574995</v>
+        <v>51.10892017791867</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>4.15561536919218</v>
+        <v>18.41948433912209</v>
       </c>
       <c r="C20">
-        <v>0.004071113584278082</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="F20">
-        <v>3.981824814317831</v>
+        <v>17.6491694472466</v>
       </c>
       <c r="G20">
-        <v>4.984916101393076</v>
+        <v>22.09530380076931</v>
       </c>
       <c r="I20">
-        <v>13.12642739848737</v>
+        <v>58.18200252302508</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>14.00261700488669</v>
+        <v>62.06565375138962</v>
       </c>
       <c r="C21">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D21">
-        <v>17.99980025492799</v>
+        <v>79.7828984272483</v>
       </c>
       <c r="E21">
-        <v>1.59950097711688</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F21">
-        <v>13.39341073906907</v>
+        <v>59.36538814073859</v>
       </c>
       <c r="G21">
-        <v>4.984916101393076</v>
+        <v>22.09530380076931</v>
       </c>
       <c r="H21">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I21">
-        <v>52.68214854329297</v>
+        <v>233.5100638135146</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>23.98512783740269</v>
+        <v>106.3124585225416</v>
       </c>
       <c r="C22">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D22">
-        <v>23.72700942695052</v>
+        <v>105.1683661086456</v>
       </c>
       <c r="E22">
-        <v>9.330422366515132</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F22">
-        <v>23.89094888590699</v>
+        <v>105.8950166834796</v>
       </c>
       <c r="G22">
-        <v>17.17026657146503</v>
+        <v>76.10604642487208</v>
       </c>
       <c r="H22">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I22">
-        <v>98.45778015637819</v>
+        <v>436.4074579904331</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>30.98643633984601</v>
+        <v>137.3452853982364</v>
       </c>
       <c r="C23">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D23">
-        <v>11.45441834404508</v>
+        <v>50.7709353627944</v>
       </c>
       <c r="E23">
-        <v>8.530671877956696</v>
+        <v>37.81162670229454</v>
       </c>
       <c r="F23">
-        <v>14.11737888712686</v>
+        <v>62.57432804023799</v>
       </c>
       <c r="G23">
-        <v>8.862073069143246</v>
+        <v>39.28054009025656</v>
       </c>
       <c r="H23">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I23">
-        <v>74.65288198401716</v>
+        <v>330.8938552805085</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>30.03787196209563</v>
+        <v>133.1408378860455</v>
       </c>
       <c r="C24">
-        <v>0.03256890867422466</v>
+        <v>0.1443594870965633</v>
       </c>
       <c r="D24">
-        <v>19.6361457326487</v>
+        <v>87.03588919336183</v>
       </c>
       <c r="E24">
-        <v>7.464337893212109</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F24">
-        <v>19.54713999756027</v>
+        <v>86.64137728648335</v>
       </c>
       <c r="G24">
-        <v>16.06250743782214</v>
+        <v>71.19597891358997</v>
       </c>
       <c r="H24">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I24">
-        <v>93.82426712529734</v>
+        <v>415.8697245553719</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>25.97259605745112</v>
+        <v>115.1217771195131</v>
       </c>
       <c r="C25">
-        <v>0.04478224942705891</v>
+        <v>0.1984942947577746</v>
       </c>
       <c r="D25">
-        <v>15.54528203834689</v>
+        <v>68.90341227807806</v>
       </c>
       <c r="E25">
-        <v>12.26284082456275</v>
+        <v>54.3542133845484</v>
       </c>
       <c r="F25">
-        <v>35.1124551808027</v>
+        <v>155.63358512572</v>
       </c>
       <c r="G25">
-        <v>16.06250743782214</v>
+        <v>71.19597891358997</v>
       </c>
       <c r="H25">
-        <v>3.131085579852762</v>
+        <v>13.87832527286089</v>
       </c>
       <c r="I25">
-        <v>108.1315493682654</v>
+        <v>479.2857863890682</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>21.90732015280657</v>
+        <v>97.10271635298061</v>
       </c>
       <c r="C26">
-        <v>0.03460446546636371</v>
+        <v>0.1533819550400985</v>
       </c>
       <c r="D26">
-        <v>19.6361457326487</v>
+        <v>87.03588919336183</v>
       </c>
       <c r="E26">
-        <v>6.131420412281376</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F26">
-        <v>39.45626406914941</v>
+        <v>174.8872245227163</v>
       </c>
       <c r="G26">
-        <v>38.21769011068026</v>
+        <v>169.3973291392313</v>
       </c>
       <c r="H26">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I26">
-        <v>126.4271401363169</v>
+        <v>560.3797562798914</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>20.68773738141323</v>
+        <v>91.69699812302073</v>
       </c>
       <c r="C27">
-        <v>0.05292447659561506</v>
+        <v>0.2345841665319154</v>
       </c>
       <c r="D27">
-        <v>19.6361457326487</v>
+        <v>87.03588919336183</v>
       </c>
       <c r="E27">
-        <v>5.331669923722932</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F27">
-        <v>43.07610480943836</v>
+        <v>190.9319240202132</v>
       </c>
       <c r="G27">
-        <v>34.89441270975154</v>
+        <v>154.6671266053852</v>
       </c>
       <c r="H27">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I27">
-        <v>124.3747918290932</v>
+        <v>551.2828610803049</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>20.4618887200441</v>
+        <v>90.69593919154677</v>
       </c>
       <c r="C28">
-        <v>0.02239112471352945</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="D28">
-        <v>11.45441834404508</v>
+        <v>50.7709353627944</v>
       </c>
       <c r="E28">
-        <v>6.39800390846752</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F28">
-        <v>23.1669807378492</v>
+        <v>102.6860767839803</v>
       </c>
       <c r="G28">
-        <v>18.83190527192939</v>
+        <v>83.47114769179517</v>
       </c>
       <c r="H28">
-        <v>1.043695193284254</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I28">
-        <v>81.37928330033307</v>
+        <v>360.7081746285033</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>25.29505007334369</v>
+        <v>112.118600325091</v>
       </c>
       <c r="C29">
-        <v>0.06310226055631028</v>
+        <v>0.2796965062495914</v>
       </c>
       <c r="D29">
-        <v>36.81777324871631</v>
+        <v>163.1922922375534</v>
       </c>
       <c r="E29">
-        <v>7.997504885584402</v>
+        <v>35.44840003340113</v>
       </c>
       <c r="F29">
-        <v>38.00832777303387</v>
+        <v>168.4693447237175</v>
       </c>
       <c r="G29">
-        <v>28.2478579078941</v>
+        <v>125.2067215376927</v>
       </c>
       <c r="H29">
-        <v>2.783187182091344</v>
+        <v>12.3362891314319</v>
       </c>
       <c r="I29">
-        <v>139.21280333122</v>
+        <v>617.0513444951373</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>22.53969640464018</v>
+        <v>99.9056813611079</v>
       </c>
       <c r="C30">
-        <v>0.03053335188208562</v>
+        <v>0.1353370191530281</v>
       </c>
       <c r="D30">
-        <v>29.45421859897306</v>
+        <v>130.5538337900427</v>
       </c>
       <c r="E30">
-        <v>4.265335938978348</v>
+        <v>18.90581335114727</v>
       </c>
       <c r="F30">
-        <v>42.35213666138058</v>
+        <v>187.7229841207139</v>
       </c>
       <c r="G30">
-        <v>13.84698917053632</v>
+        <v>61.37584389102585</v>
       </c>
       <c r="H30">
-        <v>1.391593591045672</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I30">
-        <v>113.8805037174362</v>
+        <v>504.7676380989066</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>26.9211604352015</v>
+        <v>119.3262246317039</v>
       </c>
       <c r="C31">
-        <v>0.05292447659561506</v>
+        <v>0.2345841665319154</v>
       </c>
       <c r="D31">
-        <v>28.6360458601127</v>
+        <v>126.9273384069861</v>
       </c>
       <c r="E31">
-        <v>5.331669923722932</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F31">
-        <v>36.19840740288938</v>
+        <v>160.4469949749691</v>
       </c>
       <c r="G31">
-        <v>19.38578483875085</v>
+        <v>85.92618144743618</v>
       </c>
       <c r="H31">
-        <v>1.73949198880709</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I31">
-        <v>118.2654849260801</v>
+        <v>524.2037710237062</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>31.25745473348899</v>
+        <v>138.5465561160052</v>
       </c>
       <c r="C32">
-        <v>0.07531560130914451</v>
+        <v>0.3338313139108027</v>
       </c>
       <c r="D32">
-        <v>26.99970038239198</v>
+        <v>119.6743476408725</v>
       </c>
       <c r="E32">
-        <v>6.39800390846752</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F32">
-        <v>29.68269407036929</v>
+        <v>131.5665358794747</v>
       </c>
       <c r="G32">
-        <v>24.92458050696537</v>
+        <v>110.4765190038465</v>
       </c>
       <c r="H32">
-        <v>1.73949198880709</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I32">
-        <v>121.0772411917994</v>
+        <v>536.6666906879756</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>35.95510688996713</v>
+        <v>159.3685818906651</v>
       </c>
       <c r="C33">
-        <v>0.01832001112925137</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D33">
-        <v>13.09076382176581</v>
+        <v>58.02392612890789</v>
       </c>
       <c r="E33">
-        <v>5.331669923722932</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F33">
-        <v>19.18515592353138</v>
+        <v>85.03690733673365</v>
       </c>
       <c r="G33">
-        <v>10.5237117696076</v>
+        <v>46.64564135717964</v>
       </c>
       <c r="I33">
-        <v>84.10472833972409</v>
+        <v>372.7885256139123</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>37.31019885818194</v>
+        <v>165.3749354795091</v>
       </c>
       <c r="C34">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D34">
-        <v>11.45441834404508</v>
+        <v>50.7709353627944</v>
       </c>
       <c r="E34">
-        <v>9.330422366515132</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F34">
-        <v>19.54713999756027</v>
+        <v>86.64137728648335</v>
       </c>
       <c r="G34">
-        <v>3.87715696775017</v>
+        <v>17.18523628948724</v>
       </c>
       <c r="H34">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I34">
-        <v>82.22123999995185</v>
+        <v>364.4400908105974</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>26.1081052542726</v>
+        <v>115.7224124783975</v>
       </c>
       <c r="C35">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D35">
-        <v>10.63624560518471</v>
+        <v>47.14443997973767</v>
       </c>
       <c r="E35">
-        <v>7.19775439702596</v>
+        <v>31.90356003006102</v>
       </c>
       <c r="F35">
-        <v>10.13555407280903</v>
+        <v>44.92515859299135</v>
       </c>
       <c r="G35">
-        <v>11.63147090325051</v>
+        <v>51.55570886846171</v>
       </c>
       <c r="H35">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I35">
-        <v>66.41103369844207</v>
+        <v>294.3624196363378</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>24.8433527506054</v>
+        <v>110.1164824621428</v>
       </c>
       <c r="C36">
-        <v>0.01221334075283424</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D36">
-        <v>7.363554649743265</v>
+        <v>32.63845844751068</v>
       </c>
       <c r="E36">
-        <v>8.797255374142839</v>
+        <v>38.99324003674123</v>
       </c>
       <c r="F36">
-        <v>8.687617776693452</v>
+        <v>38.50727879399258</v>
       </c>
       <c r="G36">
-        <v>4.984916101393076</v>
+        <v>22.09530380076931</v>
       </c>
       <c r="H36">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I36">
-        <v>55.38470678885371</v>
+        <v>245.4889706316758</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>17.52585612224526</v>
+        <v>77.68217308238445</v>
       </c>
       <c r="C37">
-        <v>0.004071113584278082</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D37">
-        <v>8.999900127463995</v>
+        <v>39.89144921362415</v>
       </c>
       <c r="E37">
-        <v>6.39800390846752</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F37">
-        <v>11.5834903689246</v>
+        <v>51.34303839199013</v>
       </c>
       <c r="G37">
-        <v>5.538795668214528</v>
+        <v>24.55033755641035</v>
       </c>
       <c r="H37">
-        <v>0.695796795522836</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I37">
-        <v>50.74591410442302</v>
+        <v>224.927835489875</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>9.033946454765603</v>
+        <v>40.04235725896105</v>
       </c>
       <c r="C38">
-        <v>0.004071113584278082</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D38">
-        <v>4.090863694301813</v>
+        <v>18.13247691528371</v>
       </c>
       <c r="E38">
-        <v>4.531919435164494</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F38">
-        <v>5.067777036404513</v>
+        <v>22.46257929649568</v>
       </c>
       <c r="G38">
-        <v>2.769397834107264</v>
+        <v>12.27516877820517</v>
       </c>
       <c r="I38">
-        <v>25.49797556832796</v>
+        <v>113.0180538704267</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>7.814363683372249</v>
+        <v>34.63663902900131</v>
       </c>
       <c r="C39">
-        <v>0.02239112471352945</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="D39">
-        <v>7.363554649743265</v>
+        <v>32.63845844751068</v>
       </c>
       <c r="E39">
-        <v>1.066333984744587</v>
+        <v>4.726453337786817</v>
       </c>
       <c r="F39">
-        <v>7.963649628635663</v>
+        <v>35.29833889449321</v>
       </c>
       <c r="G39">
-        <v>2.215518267285812</v>
+        <v>9.82013502256414</v>
       </c>
       <c r="I39">
-        <v>26.44581133849511</v>
+        <v>117.2192718787351</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>6.007574392419126</v>
+        <v>26.6281675772091</v>
       </c>
       <c r="C40">
-        <v>0.02239112471352945</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="F40">
-        <v>6.153729258491195</v>
+        <v>27.27598914574475</v>
       </c>
       <c r="G40">
-        <v>3.87715696775017</v>
+        <v>17.18523628948724</v>
       </c>
       <c r="I40">
-        <v>16.06085174337402</v>
+        <v>71.18864015981998</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>3.703918046453898</v>
+        <v>16.41736647617403</v>
       </c>
       <c r="C41">
-        <v>0.002035556792139041</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D41">
-        <v>2.454518216581088</v>
+        <v>10.87948614917023</v>
       </c>
       <c r="F41">
-        <v>3.257856666260046</v>
+        <v>14.44022954774723</v>
       </c>
       <c r="G41">
-        <v>1.661638700464359</v>
+        <v>7.365101266923102</v>
       </c>
       <c r="I41">
-        <v>11.07996718655153</v>
+        <v>49.11120590795812</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.161881259167961</v>
+        <v>14.01482504063637</v>
       </c>
       <c r="C42">
-        <v>0.002035556792139041</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D42">
-        <v>1.636345477720726</v>
+        <v>7.252990766113486</v>
       </c>
       <c r="F42">
-        <v>1.809920370144469</v>
+        <v>8.022349748748455</v>
       </c>
       <c r="G42">
-        <v>2.215518267285812</v>
+        <v>9.82013502256414</v>
       </c>
       <c r="I42">
-        <v>8.825700931111108</v>
+        <v>39.11932304600598</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.303656345965228</v>
+        <v>10.21080110103507</v>
       </c>
       <c r="C43">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D43">
-        <v>1.636345477720726</v>
+        <v>7.252990766113486</v>
       </c>
       <c r="E43">
-        <v>0.5331669923722935</v>
+        <v>2.363226668893409</v>
       </c>
       <c r="F43">
-        <v>3.257856666260046</v>
+        <v>14.44022954774723</v>
       </c>
       <c r="G43">
-        <v>3.323277400928718</v>
+        <v>14.7302025338462</v>
       </c>
       <c r="I43">
-        <v>11.06040955362343</v>
+        <v>49.02451802146599</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>4.11044563691835</v>
+        <v>18.21927255282729</v>
       </c>
       <c r="C44">
-        <v>0.004071113584278082</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="F44">
-        <v>4.343808888346726</v>
+        <v>19.25363939699629</v>
       </c>
       <c r="G44">
-        <v>6.092675235035983</v>
+        <v>27.00537131205137</v>
       </c>
       <c r="I44">
-        <v>14.55100087388534</v>
+        <v>64.49632819776203</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>14.09295646943433</v>
+        <v>62.46607732397925</v>
       </c>
       <c r="C45">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D45">
-        <v>9.818072866324352</v>
+        <v>43.51794459668091</v>
       </c>
       <c r="E45">
-        <v>1.332917480930733</v>
+        <v>5.908066672233522</v>
       </c>
       <c r="F45">
-        <v>18.09920370144469</v>
+        <v>80.22349748748455</v>
       </c>
       <c r="G45">
-        <v>4.984916101393076</v>
+        <v>22.09530380076931</v>
       </c>
       <c r="H45">
-        <v>1.391593591045672</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I45">
-        <v>49.72576688094927</v>
+        <v>220.4061018506941</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>24.75301328605778</v>
+        <v>109.7160588895533</v>
       </c>
       <c r="C46">
-        <v>0.002035556792139041</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D46">
-        <v>15.54528203834689</v>
+        <v>68.90341227807806</v>
       </c>
       <c r="E46">
-        <v>9.330422366515132</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F46">
-        <v>24.25293295993587</v>
+        <v>107.4994866332293</v>
       </c>
       <c r="G46">
-        <v>22.70906223967956</v>
+        <v>100.6563839812824</v>
       </c>
       <c r="H46">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I46">
-        <v>96.94064684508879</v>
+        <v>429.6828670971503</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>31.52847312713197</v>
+        <v>139.747826833774</v>
       </c>
       <c r="C47">
-        <v>0.006106670376417121</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D47">
-        <v>13.90893656062617</v>
+        <v>61.65042151196462</v>
       </c>
       <c r="E47">
-        <v>7.997504885584402</v>
+        <v>35.44840003340113</v>
       </c>
       <c r="F47">
-        <v>12.66944259101128</v>
+        <v>56.15644824123919</v>
       </c>
       <c r="G47">
-        <v>9.969832202786153</v>
+        <v>44.19060760153862</v>
       </c>
       <c r="H47">
-        <v>0.347898397761418</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I47">
-        <v>76.42819443527782</v>
+        <v>338.7628077671772</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>28.81828919070227</v>
+        <v>127.7351196560858</v>
       </c>
       <c r="C48">
-        <v>0.03460446546636371</v>
+        <v>0.1533819550400985</v>
       </c>
       <c r="D48">
-        <v>22.09066394922979</v>
+        <v>97.91537534253204</v>
       </c>
       <c r="E48">
-        <v>8.264088381770547</v>
+        <v>36.63001336784782</v>
       </c>
       <c r="F48">
-        <v>20.27110814561805</v>
+        <v>89.8503171859827</v>
       </c>
       <c r="G48">
-        <v>14.40086873735777</v>
+        <v>63.83087764666691</v>
       </c>
       <c r="H48">
-        <v>1.391593591045672</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I48">
-        <v>95.27121646119048</v>
+        <v>422.2832297198713</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>25.97259605745112</v>
+        <v>115.1217771195131</v>
       </c>
       <c r="C49">
-        <v>0.04478224942705891</v>
+        <v>0.1984942947577746</v>
       </c>
       <c r="D49">
-        <v>15.54528203834689</v>
+        <v>68.90341227807806</v>
       </c>
       <c r="E49">
-        <v>12.26284082456275</v>
+        <v>54.3542133845484</v>
       </c>
       <c r="F49">
-        <v>35.1124551808027</v>
+        <v>155.63358512572</v>
       </c>
       <c r="G49">
-        <v>16.06250743782214</v>
+        <v>71.19597891358997</v>
       </c>
       <c r="H49">
-        <v>3.131085579852762</v>
+        <v>13.87832527286089</v>
       </c>
       <c r="I49">
-        <v>108.1315493682654</v>
+        <v>479.2857863890682</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>94.29975134485333</v>
+        <v>20.95550029885629</v>
       </c>
       <c r="C2">
-        <v>0.1804493588707041</v>
+        <v>0.04009985752682315</v>
       </c>
       <c r="D2">
-        <v>97.91537534253204</v>
+        <v>21.75897229834046</v>
       </c>
       <c r="E2">
-        <v>27.1771066922742</v>
+        <v>6.039357042727601</v>
       </c>
       <c r="F2">
-        <v>163.6559348744684</v>
+        <v>36.36798552765966</v>
       </c>
       <c r="G2">
-        <v>142.3919578271799</v>
+        <v>31.64265729492889</v>
       </c>
       <c r="H2">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I2">
-        <v>530.2466838644656</v>
+        <v>117.8325964143257</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>94.49996313114811</v>
+        <v>20.9999918069218</v>
       </c>
       <c r="C3">
-        <v>0.2075167627013098</v>
+        <v>0.04611483615584663</v>
       </c>
       <c r="D3">
-        <v>97.91537534253204</v>
+        <v>21.75897229834046</v>
       </c>
       <c r="E3">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F3">
-        <v>168.4693447237175</v>
+        <v>37.43763216082613</v>
       </c>
       <c r="G3">
-        <v>120.2966540264107</v>
+        <v>26.73258978364681</v>
       </c>
       <c r="H3">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I3">
-        <v>514.3736824375176</v>
+        <v>114.3052627638928</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>96.50208099409615</v>
+        <v>21.44490688757693</v>
       </c>
       <c r="C4">
-        <v>0.1263145512094929</v>
+        <v>0.02806990026877621</v>
       </c>
       <c r="D4">
-        <v>65.27691689502136</v>
+        <v>14.50598153222697</v>
       </c>
       <c r="E4">
-        <v>22.45065335448738</v>
+        <v>4.989034078774973</v>
       </c>
       <c r="F4">
-        <v>121.9397161809765</v>
+        <v>27.09771470688368</v>
       </c>
       <c r="G4">
-        <v>81.01611393615414</v>
+        <v>18.00358087470093</v>
       </c>
       <c r="H4">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I4">
-        <v>390.395868194803</v>
+        <v>86.75463737662291</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>111.9183885387962</v>
+        <v>24.87075300862136</v>
       </c>
       <c r="C5">
-        <v>0.2796965062495914</v>
+        <v>0.06215477916657587</v>
       </c>
       <c r="D5">
-        <v>130.5538337900427</v>
+        <v>29.01196306445395</v>
       </c>
       <c r="E5">
-        <v>21.26904002004067</v>
+        <v>4.726453337786818</v>
       </c>
       <c r="F5">
-        <v>176.491694472466</v>
+        <v>39.22037654943691</v>
       </c>
       <c r="G5">
-        <v>90.83624895871826</v>
+        <v>20.1858331019374</v>
       </c>
       <c r="H5">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I5">
-        <v>539.0590829934583</v>
+        <v>119.7909073318797</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>117.5243185550507</v>
+        <v>26.11651523445572</v>
       </c>
       <c r="C6">
-        <v>0.171426890927169</v>
+        <v>0.03809486465048199</v>
       </c>
       <c r="D6">
-        <v>123.3008430239292</v>
+        <v>27.40018733865094</v>
       </c>
       <c r="E6">
-        <v>22.45065335448738</v>
+        <v>4.989034078774973</v>
       </c>
       <c r="F6">
-        <v>184.5140442212145</v>
+        <v>41.00312093804766</v>
       </c>
       <c r="G6">
-        <v>83.47114769179517</v>
+        <v>18.54914393151004</v>
       </c>
       <c r="H6">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I6">
-        <v>536.0585421616911</v>
+        <v>119.1241204803758</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>115.9226242646923</v>
+        <v>25.76058316993159</v>
       </c>
       <c r="C7">
-        <v>0.3518762497978731</v>
+        <v>0.07819472217730514</v>
       </c>
       <c r="D7">
-        <v>94.28887995947534</v>
+        <v>20.95308443543896</v>
       </c>
       <c r="E7">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F7">
-        <v>176.491694472466</v>
+        <v>39.22037654943691</v>
       </c>
       <c r="G7">
-        <v>81.01611393615414</v>
+        <v>18.00358087470093</v>
       </c>
       <c r="H7">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I7">
-        <v>501.0560173335936</v>
+        <v>111.3457816296875</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>135.5433793215831</v>
+        <v>30.1207509603518</v>
       </c>
       <c r="C8">
-        <v>0.3969885895155492</v>
+        <v>0.08821968655901094</v>
       </c>
       <c r="D8">
-        <v>130.5538337900427</v>
+        <v>29.01196306445395</v>
       </c>
       <c r="E8">
-        <v>29.5403333611676</v>
+        <v>6.564518524703913</v>
       </c>
       <c r="F8">
-        <v>131.5665358794747</v>
+        <v>29.23700797321659</v>
       </c>
       <c r="G8">
-        <v>61.37584389102585</v>
+        <v>13.63907642022797</v>
       </c>
       <c r="H8">
-        <v>10.79425299000291</v>
+        <v>2.398722886667315</v>
       </c>
       <c r="I8">
-        <v>499.7711678228124</v>
+        <v>111.0602595161806</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>156.9660404551273</v>
+        <v>34.88134232336164</v>
       </c>
       <c r="C9">
-        <v>0.1082696153224225</v>
+        <v>0.0240599145160939</v>
       </c>
       <c r="D9">
-        <v>79.7828984272483</v>
+        <v>17.72953298383296</v>
       </c>
       <c r="E9">
-        <v>25.9954933578275</v>
+        <v>5.776776301739442</v>
       </c>
       <c r="F9">
-        <v>97.87266693473117</v>
+        <v>21.74948154105137</v>
       </c>
       <c r="G9">
-        <v>51.55570886846171</v>
+        <v>11.45682419299149</v>
       </c>
       <c r="I9">
-        <v>412.2810776587184</v>
+        <v>91.61801725749301</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>149.9586279348092</v>
+        <v>33.32413954106871</v>
       </c>
       <c r="C10">
-        <v>0.06315727560474647</v>
+        <v>0.0140349501343881</v>
       </c>
       <c r="D10">
-        <v>76.15640304419158</v>
+        <v>16.92364512093148</v>
       </c>
       <c r="E10">
-        <v>42.53808004008135</v>
+        <v>9.452906675573637</v>
       </c>
       <c r="F10">
-        <v>78.61902753773489</v>
+        <v>17.47089500838553</v>
       </c>
       <c r="G10">
-        <v>27.00537131205137</v>
+        <v>6.001193624900307</v>
       </c>
       <c r="H10">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I10">
-        <v>375.882703285902</v>
+        <v>83.52948961908939</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>108.3145763854897</v>
+        <v>24.06990586344214</v>
       </c>
       <c r="C11">
-        <v>0.05413480766121126</v>
+        <v>0.01202995725804695</v>
       </c>
       <c r="D11">
-        <v>61.65042151196462</v>
+        <v>13.70009366932547</v>
       </c>
       <c r="E11">
-        <v>35.44840003340113</v>
+        <v>7.877422229644695</v>
       </c>
       <c r="F11">
-        <v>35.29833889449321</v>
+        <v>7.844075309887382</v>
       </c>
       <c r="G11">
-        <v>41.73557384589758</v>
+        <v>9.274571965755019</v>
       </c>
       <c r="H11">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I11">
-        <v>284.0434816203364</v>
+        <v>63.12077369340808</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>97.30292813927537</v>
+        <v>21.62287291983898</v>
       </c>
       <c r="C12">
-        <v>0.1624044229836337</v>
+        <v>0.03608987177414084</v>
       </c>
       <c r="D12">
-        <v>54.39743074585115</v>
+        <v>12.08831794352248</v>
       </c>
       <c r="E12">
-        <v>30.7219466956143</v>
+        <v>6.827099265692071</v>
       </c>
       <c r="F12">
-        <v>33.69386894474353</v>
+        <v>7.487526432165226</v>
       </c>
       <c r="G12">
-        <v>22.09530380076931</v>
+        <v>4.91006751128207</v>
       </c>
       <c r="H12">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I12">
-        <v>239.9159188906662</v>
+        <v>53.31464864237029</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>70.87497234836107</v>
+        <v>15.74999385519136</v>
       </c>
       <c r="C13">
-        <v>0.03608987177414083</v>
+        <v>0.008019971505364631</v>
       </c>
       <c r="D13">
-        <v>47.14443997973767</v>
+        <v>10.47654221771948</v>
       </c>
       <c r="E13">
-        <v>30.7219466956143</v>
+        <v>6.827099265692071</v>
       </c>
       <c r="F13">
-        <v>25.67151919599507</v>
+        <v>5.704782043554459</v>
       </c>
       <c r="G13">
-        <v>19.64027004512828</v>
+        <v>4.364504454472948</v>
       </c>
       <c r="H13">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I13">
-        <v>195.6312742780395</v>
+        <v>43.47361650623101</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>36.43854510565458</v>
+        <v>8.097454467923232</v>
       </c>
       <c r="C14">
-        <v>0.01804493588707042</v>
+        <v>0.004009985752682316</v>
       </c>
       <c r="D14">
-        <v>18.13247691528371</v>
+        <v>4.029439314507493</v>
       </c>
       <c r="E14">
-        <v>20.08742668559397</v>
+        <v>4.463872596798661</v>
       </c>
       <c r="F14">
-        <v>19.25363939699629</v>
+        <v>4.278586532665845</v>
       </c>
       <c r="G14">
-        <v>7.365101266923102</v>
+        <v>1.636689170427356</v>
       </c>
       <c r="I14">
-        <v>101.2952343063387</v>
+        <v>22.51005206807527</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>29.63134437163118</v>
+        <v>6.584743193695819</v>
       </c>
       <c r="C15">
-        <v>0.06315727560474647</v>
+        <v>0.0140349501343881</v>
       </c>
       <c r="D15">
-        <v>29.01196306445394</v>
+        <v>6.447102903211987</v>
       </c>
       <c r="E15">
-        <v>7.089680006680227</v>
+        <v>1.575484445928939</v>
       </c>
       <c r="F15">
-        <v>48.13409849249071</v>
+        <v>10.69646633166461</v>
       </c>
       <c r="G15">
-        <v>12.27516877820517</v>
+        <v>2.727815284045593</v>
       </c>
       <c r="I15">
-        <v>126.205411989066</v>
+        <v>28.04564710868133</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>24.22562614167144</v>
+        <v>5.383472475926987</v>
       </c>
       <c r="C16">
-        <v>0.05413480766121126</v>
+        <v>0.01202995725804695</v>
       </c>
       <c r="F16">
-        <v>20.85810934674598</v>
+        <v>4.635135410387997</v>
       </c>
       <c r="G16">
-        <v>12.27516877820517</v>
+        <v>2.727815284045593</v>
       </c>
       <c r="I16">
-        <v>57.41303907428382</v>
+        <v>12.75845312761863</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>13.21397789545715</v>
+        <v>2.936439532323811</v>
       </c>
       <c r="C17">
-        <v>0.009022467943535208</v>
+        <v>0.002004992876341158</v>
       </c>
       <c r="D17">
-        <v>10.87948614917023</v>
+        <v>2.417663588704496</v>
       </c>
       <c r="F17">
-        <v>14.44022954774723</v>
+        <v>3.208939899499383</v>
       </c>
       <c r="G17">
-        <v>4.91006751128207</v>
+        <v>1.091126113618237</v>
       </c>
       <c r="I17">
-        <v>43.45278357160021</v>
+        <v>9.656174127022268</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>10.41101288732987</v>
+        <v>2.313558419406639</v>
       </c>
       <c r="C18">
-        <v>0.009022467943535208</v>
+        <v>0.002004992876341158</v>
       </c>
       <c r="D18">
-        <v>3.626495383056743</v>
+        <v>0.8058878629014984</v>
       </c>
       <c r="F18">
-        <v>8.022349748748455</v>
+        <v>1.782744388610768</v>
       </c>
       <c r="G18">
-        <v>9.82013502256414</v>
+        <v>2.182252227236474</v>
       </c>
       <c r="I18">
-        <v>31.88901550964274</v>
+        <v>7.086447891031721</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>10.01058931474026</v>
+        <v>2.224575403275615</v>
       </c>
       <c r="C19">
-        <v>0.04511233971767603</v>
+        <v>0.01002496438170579</v>
       </c>
       <c r="D19">
-        <v>7.252990766113486</v>
+        <v>1.611775725802997</v>
       </c>
       <c r="E19">
-        <v>4.726453337786817</v>
+        <v>1.050322963952626</v>
       </c>
       <c r="F19">
-        <v>19.25363939699629</v>
+        <v>4.278586532665845</v>
       </c>
       <c r="G19">
-        <v>9.82013502256414</v>
+        <v>2.182252227236474</v>
       </c>
       <c r="I19">
-        <v>51.10892017791867</v>
+        <v>11.35753781731526</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>18.41948433912209</v>
+        <v>4.093218742027132</v>
       </c>
       <c r="C20">
-        <v>0.01804493588707042</v>
+        <v>0.004009985752682316</v>
       </c>
       <c r="F20">
-        <v>17.6491694472466</v>
+        <v>3.922037654943691</v>
       </c>
       <c r="G20">
-        <v>22.09530380076931</v>
+        <v>4.91006751128207</v>
       </c>
       <c r="I20">
-        <v>58.18200252302508</v>
+        <v>12.92933389400557</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>62.06565375138962</v>
+        <v>13.79236750030881</v>
       </c>
       <c r="C21">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D21">
-        <v>79.7828984272483</v>
+        <v>17.72953298383296</v>
       </c>
       <c r="E21">
-        <v>7.089680006680227</v>
+        <v>1.575484445928939</v>
       </c>
       <c r="F21">
-        <v>59.36538814073859</v>
+        <v>13.19230847571969</v>
       </c>
       <c r="G21">
-        <v>22.09530380076931</v>
+        <v>4.91006751128207</v>
       </c>
       <c r="H21">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I21">
-        <v>233.5100638135146</v>
+        <v>51.89112529189216</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>106.3124585225416</v>
+        <v>23.62499078278703</v>
       </c>
       <c r="C22">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D22">
-        <v>105.1683661086456</v>
+        <v>23.37074802414345</v>
       </c>
       <c r="E22">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F22">
-        <v>105.8950166834796</v>
+        <v>23.53222592966214</v>
       </c>
       <c r="G22">
-        <v>76.10604642487208</v>
+        <v>16.91245476108267</v>
       </c>
       <c r="H22">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I22">
-        <v>436.4074579904331</v>
+        <v>96.97943510898514</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>137.3452853982364</v>
+        <v>30.52117453294143</v>
       </c>
       <c r="C23">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D23">
-        <v>50.7709353627944</v>
+        <v>11.28243008062098</v>
       </c>
       <c r="E23">
-        <v>37.81162670229454</v>
+        <v>8.402583711621009</v>
       </c>
       <c r="F23">
-        <v>62.57432804023799</v>
+        <v>13.90540623116399</v>
       </c>
       <c r="G23">
-        <v>39.28054009025656</v>
+        <v>8.729008908945897</v>
       </c>
       <c r="H23">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I23">
-        <v>330.8938552805085</v>
+        <v>73.531967840113</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>133.1408378860455</v>
+        <v>29.58685286356566</v>
       </c>
       <c r="C24">
-        <v>0.1443594870965633</v>
+        <v>0.03207988602145852</v>
       </c>
       <c r="D24">
-        <v>87.03588919336183</v>
+        <v>19.34130870963597</v>
       </c>
       <c r="E24">
-        <v>33.08517336450772</v>
+        <v>7.352260747668383</v>
       </c>
       <c r="F24">
-        <v>86.64137728648335</v>
+        <v>19.25363939699629</v>
       </c>
       <c r="G24">
-        <v>71.19597891358997</v>
+        <v>15.82132864746444</v>
       </c>
       <c r="H24">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I24">
-        <v>415.8697245553719</v>
+        <v>92.41549434563819</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>115.1217771195131</v>
+        <v>25.58261713766958</v>
       </c>
       <c r="C25">
-        <v>0.1984942947577746</v>
+        <v>0.04410984327950547</v>
       </c>
       <c r="D25">
-        <v>68.90341227807806</v>
+        <v>15.31186939512847</v>
       </c>
       <c r="E25">
-        <v>54.3542133845484</v>
+        <v>12.0787140854552</v>
       </c>
       <c r="F25">
-        <v>155.63358512572</v>
+        <v>34.58524113904891</v>
       </c>
       <c r="G25">
-        <v>71.19597891358997</v>
+        <v>15.82132864746444</v>
       </c>
       <c r="H25">
-        <v>13.87832527286089</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I25">
-        <v>479.2857863890682</v>
+        <v>106.5079525309041</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>97.10271635298061</v>
+        <v>21.57838141177346</v>
       </c>
       <c r="C26">
-        <v>0.1533819550400985</v>
+        <v>0.03408487889779967</v>
       </c>
       <c r="D26">
-        <v>87.03588919336183</v>
+        <v>19.34130870963597</v>
       </c>
       <c r="E26">
-        <v>27.1771066922742</v>
+        <v>6.039357042727601</v>
       </c>
       <c r="F26">
-        <v>174.8872245227163</v>
+        <v>38.86382767171477</v>
       </c>
       <c r="G26">
-        <v>169.3973291392313</v>
+        <v>37.64385091982919</v>
       </c>
       <c r="H26">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I26">
-        <v>560.3797562798914</v>
+        <v>124.5288347288648</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>91.69699812302073</v>
+        <v>20.37711069400465</v>
       </c>
       <c r="C27">
-        <v>0.2345841665319154</v>
+        <v>0.0521298147848701</v>
       </c>
       <c r="D27">
-        <v>87.03588919336183</v>
+        <v>19.34130870963597</v>
       </c>
       <c r="E27">
-        <v>23.63226668893409</v>
+        <v>5.25161481976313</v>
       </c>
       <c r="F27">
-        <v>190.9319240202132</v>
+        <v>42.42931644893626</v>
       </c>
       <c r="G27">
-        <v>154.6671266053852</v>
+        <v>34.37047257897448</v>
       </c>
       <c r="H27">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I27">
-        <v>551.2828610803049</v>
+        <v>122.50730246229</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>90.69593919154677</v>
+        <v>20.15465315367706</v>
       </c>
       <c r="C28">
-        <v>0.0992471473788873</v>
+        <v>0.02205492163975274</v>
       </c>
       <c r="D28">
-        <v>50.7709353627944</v>
+        <v>11.28243008062098</v>
       </c>
       <c r="E28">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F28">
-        <v>102.6860767839803</v>
+        <v>22.81912817421784</v>
       </c>
       <c r="G28">
-        <v>83.47114769179517</v>
+        <v>18.54914393151004</v>
       </c>
       <c r="H28">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I28">
-        <v>360.7081746285033</v>
+        <v>80.15737213966742</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>112.118600325091</v>
+        <v>24.91524451668686</v>
       </c>
       <c r="C29">
-        <v>0.2796965062495914</v>
+        <v>0.06215477916657587</v>
       </c>
       <c r="D29">
-        <v>163.1922922375534</v>
+        <v>36.26495383056742</v>
       </c>
       <c r="E29">
-        <v>35.44840003340113</v>
+        <v>7.877422229644695</v>
       </c>
       <c r="F29">
-        <v>168.4693447237175</v>
+        <v>37.43763216082613</v>
       </c>
       <c r="G29">
-        <v>125.2067215376927</v>
+        <v>27.82371589726505</v>
       </c>
       <c r="H29">
-        <v>12.3362891314319</v>
+        <v>2.741397584762646</v>
       </c>
       <c r="I29">
-        <v>617.0513444951373</v>
+        <v>137.1225209989194</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>99.9056813611079</v>
+        <v>22.20126252469064</v>
       </c>
       <c r="C30">
-        <v>0.1353370191530281</v>
+        <v>0.03007489314511737</v>
       </c>
       <c r="D30">
-        <v>130.5538337900427</v>
+        <v>29.01196306445395</v>
       </c>
       <c r="E30">
-        <v>18.90581335114727</v>
+        <v>4.201291855810505</v>
       </c>
       <c r="F30">
-        <v>187.7229841207139</v>
+        <v>41.71621869349197</v>
       </c>
       <c r="G30">
-        <v>61.37584389102585</v>
+        <v>13.63907642022797</v>
       </c>
       <c r="H30">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I30">
-        <v>504.7676380989066</v>
+        <v>112.1705862442015</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>119.3262246317039</v>
+        <v>26.51693880704531</v>
       </c>
       <c r="C31">
-        <v>0.2345841665319154</v>
+        <v>0.0521298147848701</v>
       </c>
       <c r="D31">
-        <v>126.9273384069861</v>
+        <v>28.20607520155244</v>
       </c>
       <c r="E31">
-        <v>23.63226668893409</v>
+        <v>5.25161481976313</v>
       </c>
       <c r="F31">
-        <v>160.4469949749691</v>
+        <v>35.65488777221537</v>
       </c>
       <c r="G31">
-        <v>85.92618144743618</v>
+        <v>19.09470698831916</v>
       </c>
       <c r="H31">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I31">
-        <v>524.2037710237062</v>
+        <v>116.4897268941569</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>138.5465561160052</v>
+        <v>30.78812358133451</v>
       </c>
       <c r="C32">
-        <v>0.3338313139108027</v>
+        <v>0.07418473642462284</v>
       </c>
       <c r="D32">
-        <v>119.6743476408725</v>
+        <v>26.59429947574946</v>
       </c>
       <c r="E32">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F32">
-        <v>131.5665358794747</v>
+        <v>29.23700797321659</v>
       </c>
       <c r="G32">
-        <v>110.4765190038465</v>
+        <v>24.55033755641035</v>
       </c>
       <c r="H32">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I32">
-        <v>536.6666906879756</v>
+        <v>119.2592645973279</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>159.3685818906651</v>
+        <v>35.41524042014778</v>
       </c>
       <c r="C33">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D33">
-        <v>58.02392612890789</v>
+        <v>12.89420580642397</v>
       </c>
       <c r="E33">
-        <v>23.63226668893409</v>
+        <v>5.25161481976313</v>
       </c>
       <c r="F33">
-        <v>85.03690733673365</v>
+        <v>18.89709051927413</v>
       </c>
       <c r="G33">
-        <v>46.64564135717964</v>
+        <v>10.36569807937325</v>
       </c>
       <c r="I33">
-        <v>372.7885256139123</v>
+        <v>82.84189458086934</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>165.3749354795091</v>
+        <v>36.74998566211315</v>
       </c>
       <c r="C34">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D34">
-        <v>50.7709353627944</v>
+        <v>11.28243008062098</v>
       </c>
       <c r="E34">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F34">
-        <v>86.64137728648335</v>
+        <v>19.25363939699629</v>
       </c>
       <c r="G34">
-        <v>17.18523628948724</v>
+        <v>3.81894139766383</v>
       </c>
       <c r="H34">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I34">
-        <v>364.4400908105974</v>
+        <v>80.98668684679942</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>115.7224124783975</v>
+        <v>25.71609166186609</v>
       </c>
       <c r="C35">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D35">
-        <v>47.14443997973767</v>
+        <v>10.47654221771948</v>
       </c>
       <c r="E35">
-        <v>31.90356003006102</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F35">
-        <v>44.92515859299135</v>
+        <v>9.983368576220304</v>
       </c>
       <c r="G35">
-        <v>51.55570886846171</v>
+        <v>11.45682419299149</v>
       </c>
       <c r="H35">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I35">
-        <v>294.3624196363378</v>
+        <v>65.41387103029727</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>110.1164824621428</v>
+        <v>24.47032943603175</v>
       </c>
       <c r="C36">
-        <v>0.05413480766121126</v>
+        <v>0.01202995725804695</v>
       </c>
       <c r="D36">
-        <v>32.63845844751068</v>
+        <v>7.252990766113487</v>
       </c>
       <c r="E36">
-        <v>38.99324003674123</v>
+        <v>8.665164452609165</v>
       </c>
       <c r="F36">
-        <v>38.50727879399258</v>
+        <v>8.557173065331689</v>
       </c>
       <c r="G36">
-        <v>22.09530380076931</v>
+        <v>4.91006751128207</v>
       </c>
       <c r="H36">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I36">
-        <v>245.4889706316758</v>
+        <v>54.55310458481686</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>77.68217308238445</v>
+        <v>17.26270512941878</v>
       </c>
       <c r="C37">
-        <v>0.01804493588707042</v>
+        <v>0.004009985752682316</v>
       </c>
       <c r="D37">
-        <v>39.89144921362415</v>
+        <v>8.864766491916482</v>
       </c>
       <c r="E37">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F37">
-        <v>51.34303839199013</v>
+        <v>11.40956408710892</v>
       </c>
       <c r="G37">
-        <v>24.55033755641035</v>
+        <v>5.455630568091187</v>
       </c>
       <c r="H37">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I37">
-        <v>224.927835489875</v>
+        <v>49.98396344219447</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>40.04235725896105</v>
+        <v>8.898301613102459</v>
       </c>
       <c r="C38">
-        <v>0.01804493588707042</v>
+        <v>0.004009985752682316</v>
       </c>
       <c r="D38">
-        <v>18.13247691528371</v>
+        <v>4.029439314507493</v>
       </c>
       <c r="E38">
-        <v>20.08742668559397</v>
+        <v>4.463872596798661</v>
       </c>
       <c r="F38">
-        <v>22.46257929649568</v>
+        <v>4.991684288110152</v>
       </c>
       <c r="G38">
-        <v>12.27516877820517</v>
+        <v>2.727815284045593</v>
       </c>
       <c r="I38">
-        <v>113.0180538704267</v>
+        <v>25.11512308231704</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>34.63663902900131</v>
+        <v>7.697030895333628</v>
       </c>
       <c r="C39">
-        <v>0.0992471473788873</v>
+        <v>0.02205492163975274</v>
       </c>
       <c r="D39">
-        <v>32.63845844751068</v>
+        <v>7.252990766113487</v>
       </c>
       <c r="E39">
-        <v>4.726453337786817</v>
+        <v>1.050322963952626</v>
       </c>
       <c r="F39">
-        <v>35.29833889449321</v>
+        <v>7.844075309887382</v>
       </c>
       <c r="G39">
-        <v>9.82013502256414</v>
+        <v>2.182252227236474</v>
       </c>
       <c r="I39">
-        <v>117.2192718787351</v>
+        <v>26.04872708416335</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>26.6281675772091</v>
+        <v>5.917370572713133</v>
       </c>
       <c r="C40">
-        <v>0.0992471473788873</v>
+        <v>0.02205492163975274</v>
       </c>
       <c r="F40">
-        <v>27.27598914574475</v>
+        <v>6.061330921276611</v>
       </c>
       <c r="G40">
-        <v>17.18523628948724</v>
+        <v>3.81894139766383</v>
       </c>
       <c r="I40">
-        <v>71.18864015981998</v>
+        <v>15.81969781329333</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>16.41736647617403</v>
+        <v>3.648303661372009</v>
       </c>
       <c r="C41">
-        <v>0.009022467943535208</v>
+        <v>0.002004992876341158</v>
       </c>
       <c r="D41">
-        <v>10.87948614917023</v>
+        <v>2.417663588704496</v>
       </c>
       <c r="F41">
-        <v>14.44022954774723</v>
+        <v>3.208939899499383</v>
       </c>
       <c r="G41">
-        <v>7.365101266923102</v>
+        <v>1.636689170427356</v>
       </c>
       <c r="I41">
-        <v>49.11120590795812</v>
+        <v>10.91360131287959</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>14.01482504063637</v>
+        <v>3.114405564585858</v>
       </c>
       <c r="C42">
-        <v>0.009022467943535208</v>
+        <v>0.002004992876341158</v>
       </c>
       <c r="D42">
-        <v>7.252990766113486</v>
+        <v>1.611775725802997</v>
       </c>
       <c r="F42">
-        <v>8.022349748748455</v>
+        <v>1.782744388610768</v>
       </c>
       <c r="G42">
-        <v>9.82013502256414</v>
+        <v>2.182252227236474</v>
       </c>
       <c r="I42">
-        <v>39.11932304600598</v>
+        <v>8.693182899112438</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>10.21080110103507</v>
+        <v>2.269066911341127</v>
       </c>
       <c r="C43">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D43">
-        <v>7.252990766113486</v>
+        <v>1.611775725802997</v>
       </c>
       <c r="E43">
-        <v>2.363226668893409</v>
+        <v>0.5251614819763131</v>
       </c>
       <c r="F43">
-        <v>14.44022954774723</v>
+        <v>3.208939899499383</v>
       </c>
       <c r="G43">
-        <v>14.7302025338462</v>
+        <v>3.273378340854711</v>
       </c>
       <c r="I43">
-        <v>49.02451802146599</v>
+        <v>10.89433733810356</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>18.21927255282729</v>
+        <v>4.048727233961616</v>
       </c>
       <c r="C44">
-        <v>0.01804493588707042</v>
+        <v>0.004009985752682316</v>
       </c>
       <c r="F44">
-        <v>19.25363939699629</v>
+        <v>4.278586532665845</v>
       </c>
       <c r="G44">
-        <v>27.00537131205137</v>
+        <v>6.001193624900307</v>
       </c>
       <c r="I44">
-        <v>64.49632819776203</v>
+        <v>14.33251737728045</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>62.46607732397925</v>
+        <v>13.88135051643983</v>
       </c>
       <c r="C45">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D45">
-        <v>43.51794459668091</v>
+        <v>9.670654354817984</v>
       </c>
       <c r="E45">
-        <v>5.908066672233522</v>
+        <v>1.312903704940783</v>
       </c>
       <c r="F45">
-        <v>80.22349748748455</v>
+        <v>17.82744388610769</v>
       </c>
       <c r="G45">
-        <v>22.09530380076931</v>
+        <v>4.91006751128207</v>
       </c>
       <c r="H45">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I45">
-        <v>220.4061018506941</v>
+        <v>48.97913374459871</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>109.7160588895533</v>
+        <v>24.38134641990075</v>
       </c>
       <c r="C46">
-        <v>0.009022467943535208</v>
+        <v>0.002004992876341158</v>
       </c>
       <c r="D46">
-        <v>68.90341227807806</v>
+        <v>15.31186939512847</v>
       </c>
       <c r="E46">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F46">
-        <v>107.4994866332293</v>
+        <v>23.8887748073843</v>
       </c>
       <c r="G46">
-        <v>100.6563839812824</v>
+        <v>22.36808532917388</v>
       </c>
       <c r="H46">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I46">
-        <v>429.6828670971503</v>
+        <v>95.48508157714454</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>139.747826833774</v>
+        <v>31.05507262972759</v>
       </c>
       <c r="C47">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="D47">
-        <v>61.65042151196462</v>
+        <v>13.70009366932547</v>
       </c>
       <c r="E47">
-        <v>35.44840003340113</v>
+        <v>7.877422229644695</v>
       </c>
       <c r="F47">
-        <v>56.15644824123919</v>
+        <v>12.47921072027538</v>
       </c>
       <c r="G47">
-        <v>44.19060760153862</v>
+        <v>9.82013502256414</v>
       </c>
       <c r="H47">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I47">
-        <v>338.7628077671772</v>
+        <v>75.28062394826163</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>127.7351196560858</v>
+        <v>28.38558214579683</v>
       </c>
       <c r="C48">
-        <v>0.1533819550400985</v>
+        <v>0.03408487889779967</v>
       </c>
       <c r="D48">
-        <v>97.91537534253204</v>
+        <v>21.75897229834046</v>
       </c>
       <c r="E48">
-        <v>36.63001336784782</v>
+        <v>8.140002970632853</v>
       </c>
       <c r="F48">
-        <v>89.8503171859827</v>
+        <v>19.96673715244061</v>
       </c>
       <c r="G48">
-        <v>63.83087764666691</v>
+        <v>14.18463947703708</v>
       </c>
       <c r="H48">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I48">
-        <v>422.2832297198713</v>
+        <v>93.84071771552695</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>115.1217771195131</v>
+        <v>25.58261713766958</v>
       </c>
       <c r="C49">
-        <v>0.1984942947577746</v>
+        <v>0.04410984327950547</v>
       </c>
       <c r="D49">
-        <v>68.90341227807806</v>
+        <v>15.31186939512847</v>
       </c>
       <c r="E49">
-        <v>54.3542133845484</v>
+        <v>12.0787140854552</v>
       </c>
       <c r="F49">
-        <v>155.63358512572</v>
+        <v>34.58524113904891</v>
       </c>
       <c r="G49">
-        <v>71.19597891358997</v>
+        <v>15.82132864746444</v>
       </c>
       <c r="H49">
-        <v>13.87832527286089</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I49">
-        <v>479.2857863890682</v>
+        <v>106.5079525309041</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>20.95550029885629</v>
+        <v>73.20041637687886</v>
       </c>
       <c r="C2">
-        <v>0.04009985752682315</v>
+        <v>0.1804493588707041</v>
       </c>
       <c r="D2">
-        <v>21.75897229834046</v>
+        <v>97.89193252214831</v>
       </c>
       <c r="E2">
-        <v>6.039357042727601</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F2">
-        <v>36.36798552765966</v>
+        <v>163.6129510574935</v>
       </c>
       <c r="G2">
-        <v>31.64265729492889</v>
+        <v>142.363680336304</v>
       </c>
       <c r="H2">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I2">
-        <v>117.8325964143257</v>
+        <v>509.0526447682566</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>20.9999918069218</v>
+        <v>73.35583127364498</v>
       </c>
       <c r="C3">
-        <v>0.04611483615584663</v>
+        <v>0.2075167627013098</v>
       </c>
       <c r="D3">
-        <v>21.75897229834046</v>
+        <v>97.89193252214831</v>
       </c>
       <c r="E3">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F3">
-        <v>37.43763216082613</v>
+        <v>168.4250966768317</v>
       </c>
       <c r="G3">
-        <v>26.73258978364681</v>
+        <v>120.27276442205</v>
       </c>
       <c r="H3">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I3">
-        <v>114.3052627638928</v>
+        <v>493.1379701083841</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>21.44490688757693</v>
+        <v>74.909980241307</v>
       </c>
       <c r="C4">
-        <v>0.02806990026877621</v>
+        <v>0.1263145512094929</v>
       </c>
       <c r="D4">
-        <v>14.50598153222697</v>
+        <v>65.26128834809887</v>
       </c>
       <c r="E4">
-        <v>4.989034078774973</v>
+        <v>22.45065335448738</v>
       </c>
       <c r="F4">
-        <v>27.09771470688368</v>
+        <v>121.9076890232305</v>
       </c>
       <c r="G4">
-        <v>18.00358087470093</v>
+        <v>81.00002501893167</v>
       </c>
       <c r="H4">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I4">
-        <v>86.75463737662291</v>
+        <v>368.7400228201229</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>24.87075300862136</v>
+        <v>86.87692729230413</v>
       </c>
       <c r="C5">
-        <v>0.06215477916657587</v>
+        <v>0.2796965062495914</v>
       </c>
       <c r="D5">
-        <v>29.01196306445395</v>
+        <v>130.5225766961977</v>
       </c>
       <c r="E5">
-        <v>4.726453337786818</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F5">
-        <v>39.22037654943691</v>
+        <v>176.4453393757284</v>
       </c>
       <c r="G5">
-        <v>20.1858331019374</v>
+        <v>90.81820986971123</v>
       </c>
       <c r="H5">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I5">
-        <v>119.7909073318797</v>
+        <v>513.9219704673767</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>26.11651523445572</v>
+        <v>91.22854440175765</v>
       </c>
       <c r="C6">
-        <v>0.03809486465048199</v>
+        <v>0.171426890927169</v>
       </c>
       <c r="D6">
-        <v>27.40018733865094</v>
+        <v>123.2713224352979</v>
       </c>
       <c r="E6">
-        <v>4.989034078774973</v>
+        <v>22.45065335448738</v>
       </c>
       <c r="F6">
-        <v>41.00312093804766</v>
+        <v>184.4655820746251</v>
       </c>
       <c r="G6">
-        <v>18.54914393151004</v>
+        <v>83.45457123162655</v>
       </c>
       <c r="H6">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I6">
-        <v>119.1241204803758</v>
+        <v>509.6682088130087</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>25.76058316993159</v>
+        <v>89.98522522762808</v>
       </c>
       <c r="C7">
-        <v>0.07819472217730514</v>
+        <v>0.3518762497978731</v>
       </c>
       <c r="D7">
-        <v>20.95308443543896</v>
+        <v>94.2663053916984</v>
       </c>
       <c r="E7">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F7">
-        <v>39.22037654943691</v>
+        <v>176.4453393757284</v>
       </c>
       <c r="G7">
-        <v>18.00358087470093</v>
+        <v>81.00002501893167</v>
       </c>
       <c r="H7">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I7">
-        <v>111.3457816296875</v>
+        <v>475.0335997147922</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>30.1207509603518</v>
+        <v>105.2158851107153</v>
       </c>
       <c r="C8">
-        <v>0.08821968655901094</v>
+        <v>0.3969885895155492</v>
       </c>
       <c r="D8">
-        <v>29.01196306445395</v>
+        <v>130.5225766961977</v>
       </c>
       <c r="E8">
-        <v>6.564518524703913</v>
+        <v>29.5403333611676</v>
       </c>
       <c r="F8">
-        <v>29.23700797321659</v>
+        <v>131.5319802619066</v>
       </c>
       <c r="G8">
-        <v>13.63907642022797</v>
+        <v>61.36365531737246</v>
       </c>
       <c r="H8">
-        <v>2.398722886667315</v>
+        <v>10.79425299000291</v>
       </c>
       <c r="I8">
-        <v>111.0602595161806</v>
+        <v>469.3656723268782</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>34.88134232336164</v>
+        <v>121.8452790646984</v>
       </c>
       <c r="C9">
-        <v>0.0240599145160939</v>
+        <v>0.1082696153224225</v>
       </c>
       <c r="D9">
-        <v>17.72953298383296</v>
+        <v>79.76379686989864</v>
       </c>
       <c r="E9">
-        <v>5.776776301739442</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F9">
-        <v>21.74948154105137</v>
+        <v>97.84696092654029</v>
       </c>
       <c r="G9">
-        <v>11.45682419299149</v>
+        <v>51.54547046659284</v>
       </c>
       <c r="I9">
-        <v>91.61801725749301</v>
+        <v>377.1052703008801</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>33.32413954106871</v>
+        <v>116.4057576778815</v>
       </c>
       <c r="C10">
-        <v>0.0140349501343881</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D10">
-        <v>16.92364512093148</v>
+        <v>76.13816973944867</v>
       </c>
       <c r="E10">
-        <v>9.452906675573637</v>
+        <v>42.53808004008135</v>
       </c>
       <c r="F10">
-        <v>17.47089500838553</v>
+        <v>78.59837844918806</v>
       </c>
       <c r="G10">
-        <v>6.001193624900307</v>
+        <v>27.00000833964387</v>
       </c>
       <c r="H10">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I10">
-        <v>83.52948961908939</v>
+        <v>342.2855876632772</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>24.06990586344214</v>
+        <v>84.07945915051259</v>
       </c>
       <c r="C11">
-        <v>0.01202995725804695</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D11">
-        <v>13.70009366932547</v>
+        <v>61.63566121764897</v>
       </c>
       <c r="E11">
-        <v>7.877422229644695</v>
+        <v>35.44840003340113</v>
       </c>
       <c r="F11">
-        <v>7.844075309887382</v>
+        <v>35.28906787514566</v>
       </c>
       <c r="G11">
-        <v>9.274571965755019</v>
+        <v>41.72728561581327</v>
       </c>
       <c r="H11">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I11">
-        <v>63.12077369340808</v>
+        <v>259.7760448416118</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>21.62287291983898</v>
+        <v>75.53163982837179</v>
       </c>
       <c r="C12">
-        <v>0.03608987177414084</v>
+        <v>0.1624044229836337</v>
       </c>
       <c r="D12">
-        <v>12.08831794352248</v>
+        <v>54.3844069567491</v>
       </c>
       <c r="E12">
-        <v>6.827099265692071</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F12">
-        <v>7.487526432165226</v>
+        <v>33.68501933536632</v>
       </c>
       <c r="G12">
-        <v>4.91006751128207</v>
+        <v>22.09091591425408</v>
       </c>
       <c r="H12">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I12">
-        <v>53.31464864237029</v>
+        <v>218.1183692947682</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>15.74999385519136</v>
+        <v>55.01687345523372</v>
       </c>
       <c r="C13">
-        <v>0.008019971505364631</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D13">
-        <v>10.47654221771948</v>
+        <v>47.1331526958492</v>
       </c>
       <c r="E13">
-        <v>6.827099265692071</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F13">
-        <v>5.704782043554459</v>
+        <v>25.66477663646958</v>
       </c>
       <c r="G13">
-        <v>4.364504454472948</v>
+        <v>19.63636970155918</v>
       </c>
       <c r="H13">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I13">
-        <v>43.47361650623101</v>
+        <v>179.7512451979291</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>8.097454467923232</v>
+        <v>28.28551121144787</v>
       </c>
       <c r="C14">
-        <v>0.004009985752682316</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D14">
-        <v>4.029439314507493</v>
+        <v>18.12813565224969</v>
       </c>
       <c r="E14">
-        <v>4.463872596798661</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F14">
-        <v>4.278586532665845</v>
+        <v>19.24858247735218</v>
       </c>
       <c r="G14">
-        <v>1.636689170427356</v>
+        <v>7.363638638084693</v>
       </c>
       <c r="I14">
-        <v>22.51005206807527</v>
+        <v>93.13133960061548</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>6.584743193695819</v>
+        <v>23.00140472139715</v>
       </c>
       <c r="C15">
-        <v>0.0140349501343881</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D15">
-        <v>6.447102903211987</v>
+        <v>29.00501704359951</v>
       </c>
       <c r="E15">
-        <v>1.575484445928939</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F15">
-        <v>10.69646633166461</v>
+        <v>48.12145619338046</v>
       </c>
       <c r="G15">
-        <v>2.727815284045593</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I15">
-        <v>28.04564710868133</v>
+        <v>119.5534463041366</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>5.383472475926987</v>
+        <v>18.80520250870984</v>
       </c>
       <c r="C16">
-        <v>0.01202995725804695</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="F16">
-        <v>4.635135410387997</v>
+        <v>20.85263101713153</v>
       </c>
       <c r="G16">
-        <v>2.727815284045593</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I16">
-        <v>12.75845312761863</v>
+        <v>51.98469939697708</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>2.936439532323811</v>
+        <v>10.257383186569</v>
       </c>
       <c r="C17">
-        <v>0.002004992876341158</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D17">
-        <v>2.417663588704496</v>
+        <v>10.87688139134981</v>
       </c>
       <c r="F17">
-        <v>3.208939899499383</v>
+        <v>14.43643685801414</v>
       </c>
       <c r="G17">
-        <v>1.091126113618237</v>
+        <v>4.909092425389796</v>
       </c>
       <c r="I17">
-        <v>9.656174127022268</v>
+        <v>40.48881632926628</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.313558419406639</v>
+        <v>8.081574631842246</v>
       </c>
       <c r="C18">
-        <v>0.002004992876341158</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D18">
-        <v>0.8058878629014984</v>
+        <v>3.625627130449939</v>
       </c>
       <c r="F18">
-        <v>1.782744388610768</v>
+        <v>8.020242698896746</v>
       </c>
       <c r="G18">
-        <v>2.182252227236474</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="I18">
-        <v>7.086447891031721</v>
+        <v>29.55465177991206</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.224575403275615</v>
+        <v>7.770744838309846</v>
       </c>
       <c r="C19">
-        <v>0.01002496438170579</v>
+        <v>0.04511233971767603</v>
       </c>
       <c r="D19">
-        <v>1.611775725802997</v>
+        <v>7.251254260899877</v>
       </c>
       <c r="E19">
-        <v>1.050322963952626</v>
+        <v>4.726453337786817</v>
       </c>
       <c r="F19">
-        <v>4.278586532665845</v>
+        <v>19.24858247735218</v>
       </c>
       <c r="G19">
-        <v>2.182252227236474</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="I19">
-        <v>11.35753781731526</v>
+        <v>48.86033210484599</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>4.093218742027132</v>
+        <v>14.29817050249012</v>
       </c>
       <c r="C20">
-        <v>0.004009985752682316</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="F20">
-        <v>3.922037654943691</v>
+        <v>17.64453393757283</v>
       </c>
       <c r="G20">
-        <v>4.91006751128207</v>
+        <v>22.09091591425408</v>
       </c>
       <c r="I20">
-        <v>12.92933389400557</v>
+        <v>54.0516652902041</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>13.79236750030881</v>
+        <v>48.17861799752104</v>
       </c>
       <c r="C21">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D21">
-        <v>17.72953298383296</v>
+        <v>79.76379686989864</v>
       </c>
       <c r="E21">
-        <v>1.575484445928939</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F21">
-        <v>13.19230847571969</v>
+        <v>59.34979597183592</v>
       </c>
       <c r="G21">
-        <v>4.91006751128207</v>
+        <v>22.09091591425408</v>
       </c>
       <c r="H21">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I21">
-        <v>51.89112529189216</v>
+        <v>219.5839464468785</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>23.62499078278703</v>
+        <v>82.52531018285063</v>
       </c>
       <c r="C22">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D22">
-        <v>23.37074802414345</v>
+        <v>105.1431867830482</v>
       </c>
       <c r="E22">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F22">
-        <v>23.53222592966214</v>
+        <v>105.867203625437</v>
       </c>
       <c r="G22">
-        <v>16.91245476108267</v>
+        <v>76.09093259354188</v>
       </c>
       <c r="H22">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I22">
-        <v>96.97943510898514</v>
+        <v>412.552203435772</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>30.52117453294143</v>
+        <v>106.6146191816113</v>
       </c>
       <c r="C23">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D23">
-        <v>11.28243008062098</v>
+        <v>50.75877982629914</v>
       </c>
       <c r="E23">
-        <v>8.402583711621009</v>
+        <v>37.81162670229454</v>
       </c>
       <c r="F23">
-        <v>13.90540623116399</v>
+        <v>62.55789305139461</v>
       </c>
       <c r="G23">
-        <v>8.729008908945897</v>
+        <v>39.27273940311836</v>
       </c>
       <c r="H23">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I23">
-        <v>73.531967840113</v>
+        <v>300.1267978514065</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>29.58685286356566</v>
+        <v>103.350906349521</v>
       </c>
       <c r="C24">
-        <v>0.03207988602145852</v>
+        <v>0.1443594870965633</v>
       </c>
       <c r="D24">
-        <v>19.34130870963597</v>
+        <v>87.01505113079848</v>
       </c>
       <c r="E24">
-        <v>7.352260747668383</v>
+        <v>33.08517336450772</v>
       </c>
       <c r="F24">
-        <v>19.25363939699629</v>
+        <v>86.61862114808483</v>
       </c>
       <c r="G24">
-        <v>15.82132864746444</v>
+        <v>71.18184016815202</v>
       </c>
       <c r="H24">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I24">
-        <v>92.41549434563819</v>
+        <v>386.0220600724476</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>25.58261713766958</v>
+        <v>89.36356564056325</v>
       </c>
       <c r="C25">
-        <v>0.04410984327950547</v>
+        <v>0.1984942947577746</v>
       </c>
       <c r="D25">
-        <v>15.31186939512847</v>
+        <v>68.88691547854881</v>
       </c>
       <c r="E25">
-        <v>12.0787140854552</v>
+        <v>54.3542133845484</v>
       </c>
       <c r="F25">
-        <v>34.58524113904891</v>
+        <v>155.5927083585969</v>
       </c>
       <c r="G25">
-        <v>15.82132864746444</v>
+        <v>71.18184016815202</v>
       </c>
       <c r="H25">
-        <v>3.084072282857976</v>
+        <v>13.87832527286089</v>
       </c>
       <c r="I25">
-        <v>106.5079525309041</v>
+        <v>453.456062598028</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>21.57838141177346</v>
+        <v>75.37622493160555</v>
       </c>
       <c r="C26">
-        <v>0.03408487889779967</v>
+        <v>0.1533819550400985</v>
       </c>
       <c r="D26">
-        <v>19.34130870963597</v>
+        <v>87.01505113079848</v>
       </c>
       <c r="E26">
-        <v>6.039357042727601</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F26">
-        <v>38.86382767171477</v>
+        <v>174.841290835949</v>
       </c>
       <c r="G26">
-        <v>37.64385091982919</v>
+        <v>169.3636886759479</v>
       </c>
       <c r="H26">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I26">
-        <v>124.5288347288648</v>
+        <v>538.5528526459021</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>20.37711069400465</v>
+        <v>71.18002271891818</v>
       </c>
       <c r="C27">
-        <v>0.0521298147848701</v>
+        <v>0.2345841665319154</v>
       </c>
       <c r="D27">
-        <v>19.34130870963597</v>
+        <v>87.01505113079848</v>
       </c>
       <c r="E27">
-        <v>5.25161481976313</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F27">
-        <v>42.42931644893626</v>
+        <v>190.8817762337425</v>
       </c>
       <c r="G27">
-        <v>34.37047257897448</v>
+        <v>154.6364113997786</v>
       </c>
       <c r="H27">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I27">
-        <v>122.50730246229</v>
+        <v>530.6641846215617</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>20.15465315367706</v>
+        <v>70.40294823508725</v>
       </c>
       <c r="C28">
-        <v>0.02205492163975274</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="D28">
-        <v>11.28243008062098</v>
+        <v>50.75877982629914</v>
       </c>
       <c r="E28">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F28">
-        <v>22.81912817421784</v>
+        <v>102.6591065458783</v>
       </c>
       <c r="G28">
-        <v>18.54914393151004</v>
+        <v>83.45457123162655</v>
       </c>
       <c r="H28">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I28">
-        <v>80.15737213966742</v>
+        <v>340.359481437278</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>24.91524451668686</v>
+        <v>87.03234218907031</v>
       </c>
       <c r="C29">
-        <v>0.06215477916657587</v>
+        <v>0.2796965062495914</v>
       </c>
       <c r="D29">
-        <v>36.26495383056742</v>
+        <v>163.1532208702472</v>
       </c>
       <c r="E29">
-        <v>7.877422229644695</v>
+        <v>35.44840003340113</v>
       </c>
       <c r="F29">
-        <v>37.43763216082613</v>
+        <v>168.4250966768317</v>
       </c>
       <c r="G29">
-        <v>27.82371589726505</v>
+        <v>125.1818568474398</v>
       </c>
       <c r="H29">
-        <v>2.741397584762646</v>
+        <v>12.3362891314319</v>
       </c>
       <c r="I29">
-        <v>137.1225209989194</v>
+        <v>591.8569022546717</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>22.20126252469064</v>
+        <v>77.55203348633236</v>
       </c>
       <c r="C30">
-        <v>0.03007489314511737</v>
+        <v>0.1353370191530281</v>
       </c>
       <c r="D30">
-        <v>29.01196306445395</v>
+        <v>130.5225766961977</v>
       </c>
       <c r="E30">
-        <v>4.201291855810505</v>
+        <v>18.90581335114727</v>
       </c>
       <c r="F30">
-        <v>41.71621869349197</v>
+        <v>187.6736791541838</v>
       </c>
       <c r="G30">
-        <v>13.63907642022797</v>
+        <v>61.36365531737246</v>
       </c>
       <c r="H30">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I30">
-        <v>112.1705862442015</v>
+        <v>482.3212395901026</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>26.51693880704531</v>
+        <v>92.6272784726534</v>
       </c>
       <c r="C31">
-        <v>0.0521298147848701</v>
+        <v>0.2345841665319154</v>
       </c>
       <c r="D31">
-        <v>28.20607520155244</v>
+        <v>126.8969495657479</v>
       </c>
       <c r="E31">
-        <v>5.25161481976313</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F31">
-        <v>35.65488777221537</v>
+        <v>160.4048539779349</v>
       </c>
       <c r="G31">
-        <v>19.09470698831916</v>
+        <v>85.90911744432142</v>
       </c>
       <c r="H31">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I31">
-        <v>116.4897268941569</v>
+        <v>497.4152310232685</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>30.78812358133451</v>
+        <v>107.5471085622083</v>
       </c>
       <c r="C32">
-        <v>0.07418473642462284</v>
+        <v>0.3338313139108027</v>
       </c>
       <c r="D32">
-        <v>26.59429947574946</v>
+        <v>119.645695304848</v>
       </c>
       <c r="E32">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F32">
-        <v>29.23700797321659</v>
+        <v>131.5319802619066</v>
       </c>
       <c r="G32">
-        <v>24.55033755641035</v>
+        <v>110.4545795712704</v>
       </c>
       <c r="H32">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I32">
-        <v>119.2592645973279</v>
+        <v>505.5820957480099</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>35.41524042014778</v>
+        <v>123.7102578258927</v>
       </c>
       <c r="C33">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D33">
-        <v>12.89420580642397</v>
+        <v>58.01003408719902</v>
       </c>
       <c r="E33">
-        <v>5.25161481976313</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F33">
-        <v>18.89709051927413</v>
+        <v>85.01457260830549</v>
       </c>
       <c r="G33">
-        <v>10.36569807937325</v>
+        <v>46.63637804120305</v>
       </c>
       <c r="I33">
-        <v>82.84189458086934</v>
+        <v>337.0847114630262</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>36.74998566211315</v>
+        <v>128.3727047288787</v>
       </c>
       <c r="C34">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D34">
-        <v>11.28243008062098</v>
+        <v>50.75877982629914</v>
       </c>
       <c r="E34">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F34">
-        <v>19.25363939699629</v>
+        <v>86.61862114808483</v>
       </c>
       <c r="G34">
-        <v>3.81894139766383</v>
+        <v>17.18182348886429</v>
       </c>
       <c r="H34">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I34">
-        <v>80.98668684679942</v>
+        <v>327.3995355844502</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>25.71609166186609</v>
+        <v>89.8298103308619</v>
       </c>
       <c r="C35">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D35">
-        <v>10.47654221771948</v>
+        <v>47.1331526958492</v>
       </c>
       <c r="E35">
-        <v>7.089680006680227</v>
+        <v>31.90356003006102</v>
       </c>
       <c r="F35">
-        <v>9.983368576220304</v>
+        <v>44.91335911382175</v>
       </c>
       <c r="G35">
-        <v>11.45682419299149</v>
+        <v>51.54547046659284</v>
       </c>
       <c r="H35">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I35">
-        <v>65.41387103029727</v>
+        <v>268.4364923238753</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>24.47032943603175</v>
+        <v>85.47819322140832</v>
       </c>
       <c r="C36">
-        <v>0.01202995725804695</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D36">
-        <v>7.252990766113487</v>
+        <v>32.63064417404944</v>
       </c>
       <c r="E36">
-        <v>8.665164452609165</v>
+        <v>38.99324003674123</v>
       </c>
       <c r="F36">
-        <v>8.557173065331689</v>
+        <v>38.49716495470437</v>
       </c>
       <c r="G36">
-        <v>4.91006751128207</v>
+        <v>22.09091591425408</v>
       </c>
       <c r="H36">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I36">
-        <v>54.55310458481686</v>
+        <v>220.8283653916766</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>17.26270512941878</v>
+        <v>60.30097994528443</v>
       </c>
       <c r="C37">
-        <v>0.004009985752682316</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D37">
-        <v>8.864766491916482</v>
+        <v>39.88189843494932</v>
       </c>
       <c r="E37">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F37">
-        <v>11.40956408710892</v>
+        <v>51.32955327293917</v>
       </c>
       <c r="G37">
-        <v>5.455630568091187</v>
+        <v>24.54546212694898</v>
       </c>
       <c r="H37">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I37">
-        <v>49.98396344219447</v>
+        <v>207.5187310255879</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>8.898301613102459</v>
+        <v>31.08297935323938</v>
       </c>
       <c r="C38">
-        <v>0.004009985752682316</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D38">
-        <v>4.029439314507493</v>
+        <v>18.12813565224969</v>
       </c>
       <c r="E38">
-        <v>4.463872596798661</v>
+        <v>20.08742668559397</v>
       </c>
       <c r="F38">
-        <v>4.991684288110152</v>
+        <v>22.45667955691087</v>
       </c>
       <c r="G38">
-        <v>2.727815284045593</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I38">
-        <v>25.11512308231704</v>
+        <v>104.0459972473555</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>7.697030895333628</v>
+        <v>26.88677714055208</v>
       </c>
       <c r="C39">
-        <v>0.02205492163975274</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="D39">
-        <v>7.252990766113487</v>
+        <v>32.63064417404944</v>
       </c>
       <c r="E39">
-        <v>1.050322963952626</v>
+        <v>4.726453337786817</v>
       </c>
       <c r="F39">
-        <v>7.844075309887382</v>
+        <v>35.28906787514566</v>
       </c>
       <c r="G39">
-        <v>2.182252227236474</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="I39">
-        <v>26.04872708416335</v>
+        <v>109.4503745256925</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>5.917370572713133</v>
+        <v>20.6701812699042</v>
       </c>
       <c r="C40">
-        <v>0.02205492163975274</v>
+        <v>0.0992471473788873</v>
       </c>
       <c r="F40">
-        <v>6.061330921276611</v>
+        <v>27.26882517624892</v>
       </c>
       <c r="G40">
-        <v>3.81894139766383</v>
+        <v>17.18182348886429</v>
       </c>
       <c r="I40">
-        <v>15.81969781329333</v>
+        <v>65.2200770823963</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>3.648303661372009</v>
+        <v>12.74402153482815</v>
       </c>
       <c r="C41">
-        <v>0.002004992876341158</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D41">
-        <v>2.417663588704496</v>
+        <v>10.87688139134981</v>
       </c>
       <c r="F41">
-        <v>3.208939899499383</v>
+        <v>14.43643685801414</v>
       </c>
       <c r="G41">
-        <v>1.636689170427356</v>
+        <v>7.363638638084693</v>
       </c>
       <c r="I41">
-        <v>10.91360131287959</v>
+        <v>45.43000089022033</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.114405564585858</v>
+        <v>10.87904277363379</v>
       </c>
       <c r="C42">
-        <v>0.002004992876341158</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D42">
-        <v>1.611775725802997</v>
+        <v>7.251254260899877</v>
       </c>
       <c r="F42">
-        <v>1.782744388610768</v>
+        <v>8.020242698896746</v>
       </c>
       <c r="G42">
-        <v>2.182252227236474</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="I42">
-        <v>8.693182899112438</v>
+        <v>35.97774705215353</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.269066911341127</v>
+        <v>7.926159735076044</v>
       </c>
       <c r="C43">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D43">
-        <v>1.611775725802997</v>
+        <v>7.251254260899877</v>
       </c>
       <c r="E43">
-        <v>0.5251614819763131</v>
+        <v>2.363226668893409</v>
       </c>
       <c r="F43">
-        <v>3.208939899499383</v>
+        <v>14.43643685801414</v>
       </c>
       <c r="G43">
-        <v>3.273378340854711</v>
+        <v>14.72727727616939</v>
       </c>
       <c r="I43">
-        <v>10.89433733810356</v>
+        <v>46.73142220288346</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>4.048727233961616</v>
+        <v>14.14275560572393</v>
       </c>
       <c r="C44">
-        <v>0.004009985752682316</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="F44">
-        <v>4.278586532665845</v>
+        <v>19.24858247735218</v>
       </c>
       <c r="G44">
-        <v>6.001193624900307</v>
+        <v>27.00000833964387</v>
       </c>
       <c r="I44">
-        <v>14.33251737728045</v>
+        <v>60.40939135860706</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>13.88135051643983</v>
+        <v>48.48944779105346</v>
       </c>
       <c r="C45">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D45">
-        <v>9.670654354817984</v>
+        <v>43.50752556539924</v>
       </c>
       <c r="E45">
-        <v>1.312903704940783</v>
+        <v>5.908066672233522</v>
       </c>
       <c r="F45">
-        <v>17.82744388610769</v>
+        <v>80.20242698896743</v>
       </c>
       <c r="G45">
-        <v>4.91006751128207</v>
+        <v>22.09091591425408</v>
       </c>
       <c r="H45">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I45">
-        <v>48.97913374459871</v>
+        <v>206.3935949014543</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>24.38134641990075</v>
+        <v>85.16736342787597</v>
       </c>
       <c r="C46">
-        <v>0.002004992876341158</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D46">
-        <v>15.31186939512847</v>
+        <v>68.88691547854881</v>
       </c>
       <c r="E46">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F46">
-        <v>23.8887748073843</v>
+        <v>107.4712521652164</v>
       </c>
       <c r="G46">
-        <v>22.36808532917388</v>
+        <v>100.6363947204908</v>
       </c>
       <c r="H46">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I46">
-        <v>95.48508157714454</v>
+        <v>405.0694511071391</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>31.05507262972759</v>
+        <v>108.4795979428055</v>
       </c>
       <c r="C47">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="D47">
-        <v>13.70009366932547</v>
+        <v>61.63566121764897</v>
       </c>
       <c r="E47">
-        <v>7.877422229644695</v>
+        <v>35.44840003340113</v>
       </c>
       <c r="F47">
-        <v>12.47921072027538</v>
+        <v>56.14169889227723</v>
       </c>
       <c r="G47">
-        <v>9.82013502256414</v>
+        <v>44.18183182850815</v>
       </c>
       <c r="H47">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I47">
-        <v>75.28062394826163</v>
+        <v>307.4562934599006</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>28.38558214579683</v>
+        <v>99.15470413683367</v>
       </c>
       <c r="C48">
-        <v>0.03408487889779967</v>
+        <v>0.1533819550400985</v>
       </c>
       <c r="D48">
-        <v>21.75897229834046</v>
+        <v>97.89193252214831</v>
       </c>
       <c r="E48">
-        <v>8.140002970632853</v>
+        <v>36.63001336784782</v>
       </c>
       <c r="F48">
-        <v>19.96673715244061</v>
+        <v>89.8267182276435</v>
       </c>
       <c r="G48">
-        <v>14.18463947703708</v>
+        <v>63.81820153006734</v>
       </c>
       <c r="H48">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I48">
-        <v>93.84071771552695</v>
+        <v>393.6430963052968</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>25.58261713766958</v>
+        <v>89.36356564056325</v>
       </c>
       <c r="C49">
-        <v>0.04410984327950547</v>
+        <v>0.1984942947577746</v>
       </c>
       <c r="D49">
-        <v>15.31186939512847</v>
+        <v>68.88691547854881</v>
       </c>
       <c r="E49">
-        <v>12.0787140854552</v>
+        <v>54.3542133845484</v>
       </c>
       <c r="F49">
-        <v>34.58524113904891</v>
+        <v>155.5927083585969</v>
       </c>
       <c r="G49">
-        <v>15.82132864746444</v>
+        <v>71.18184016815202</v>
       </c>
       <c r="H49">
-        <v>3.084072282857976</v>
+        <v>13.87832527286089</v>
       </c>
       <c r="I49">
-        <v>106.5079525309041</v>
+        <v>453.456062598028</v>
       </c>
     </row>
   </sheetData>
